--- a/biology/Zoologie/Diaphone_(Lépidoptère)/Diaphone_(Lépidoptère).xlsx
+++ b/biology/Zoologie/Diaphone_(Lépidoptère)/Diaphone_(Lépidoptère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diaphone_(L%C3%A9pidopt%C3%A8re)</t>
+          <t>Diaphone_(Lépidoptère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaphone est un genre de papillons nocturnes de la famille des Noctuidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diaphone_(L%C3%A9pidopt%C3%A8re)</t>
+          <t>Diaphone_(Lépidoptère)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Diaphone a été créé en 1820 par l'entomologiste allemand Jakob Hübner (1771-1826)[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Diaphone a été créé en 1820 par l'entomologiste allemand Jakob Hübner (1771-1826),. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diaphone_(L%C3%A9pidopt%C3%A8re)</t>
+          <t>Diaphone_(Lépidoptère)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Diaphone angolensis Weymer, 1901
 Diaphone delamarei Viette, 1962
-Diaphone eumela (Stoll, [1782])
+Diaphone eumela (Stoll, )
 Diaphone lampra Karsch, 1894
 Diaphone mossambicensis Hopffer, 1862
 Diaphone niveiplaga Carcasson, 1965
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diaphone_(L%C3%A9pidopt%C3%A8re)</t>
+          <t>Diaphone_(Lépidoptère)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jakob Hübner, Verzeichniss bekannter Schmettlinge, Augsbourg, 1816 (DOI 10.5962/BHL.TITLE.48607, lire en ligne)</t>
         </is>
